--- a/Code/Results/Cases/Case_3_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004448882156153</v>
+        <v>1.029768215540761</v>
       </c>
       <c r="D2">
-        <v>1.020930256760278</v>
+        <v>1.034140409772263</v>
       </c>
       <c r="E2">
-        <v>1.0159565363905</v>
+        <v>1.039107914137565</v>
       </c>
       <c r="F2">
-        <v>1.017241029169029</v>
+        <v>1.049100804991565</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042721202482855</v>
+        <v>1.034551686873269</v>
       </c>
       <c r="J2">
-        <v>1.026497337310961</v>
+        <v>1.034913164017445</v>
       </c>
       <c r="K2">
-        <v>1.032105502036116</v>
+        <v>1.036940739213756</v>
       </c>
       <c r="L2">
-        <v>1.027197958631952</v>
+        <v>1.041894040855497</v>
       </c>
       <c r="M2">
-        <v>1.028465282983783</v>
+        <v>1.051858802697866</v>
       </c>
       <c r="N2">
-        <v>1.012739898672591</v>
+        <v>1.015640517648769</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008192129812466</v>
+        <v>1.030562604720285</v>
       </c>
       <c r="D3">
-        <v>1.023609128703501</v>
+        <v>1.034729235998363</v>
       </c>
       <c r="E3">
-        <v>1.01935120716626</v>
+        <v>1.039887838461232</v>
       </c>
       <c r="F3">
-        <v>1.021624923319113</v>
+        <v>1.050130206903502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043658666035281</v>
+        <v>1.034704572261864</v>
       </c>
       <c r="J3">
-        <v>1.028461933351418</v>
+        <v>1.035349517361032</v>
       </c>
       <c r="K3">
-        <v>1.033948581685901</v>
+        <v>1.037339278951794</v>
       </c>
       <c r="L3">
-        <v>1.029742331070205</v>
+        <v>1.042484195792342</v>
       </c>
       <c r="M3">
-        <v>1.031988388550049</v>
+        <v>1.052699821718335</v>
       </c>
       <c r="N3">
-        <v>1.013398930211385</v>
+        <v>1.015786088068981</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010570109614053</v>
+        <v>1.03107719075133</v>
       </c>
       <c r="D4">
-        <v>1.025313421236093</v>
+        <v>1.035110658128329</v>
       </c>
       <c r="E4">
-        <v>1.021513000841807</v>
+        <v>1.040393457374549</v>
       </c>
       <c r="F4">
-        <v>1.024417001380212</v>
+        <v>1.050797798781104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044245761036237</v>
+        <v>1.034802553679574</v>
       </c>
       <c r="J4">
-        <v>1.029707241879033</v>
+        <v>1.035631757134885</v>
       </c>
       <c r="K4">
-        <v>1.03511564117975</v>
+        <v>1.03759687396313</v>
       </c>
       <c r="L4">
-        <v>1.031358535287584</v>
+        <v>1.042866362008211</v>
       </c>
       <c r="M4">
-        <v>1.034229402366227</v>
+        <v>1.053244908488761</v>
       </c>
       <c r="N4">
-        <v>1.013816580683353</v>
+        <v>1.015880215133839</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01155955929457</v>
+        <v>1.031293655879763</v>
       </c>
       <c r="D5">
-        <v>1.026023112565104</v>
+        <v>1.035271104928151</v>
       </c>
       <c r="E5">
-        <v>1.022413742468588</v>
+        <v>1.04060624665822</v>
       </c>
       <c r="F5">
-        <v>1.025580475072087</v>
+        <v>1.051078811844094</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044487987188683</v>
+        <v>1.034843518014146</v>
       </c>
       <c r="J5">
-        <v>1.03022471860918</v>
+        <v>1.035750383222436</v>
       </c>
       <c r="K5">
-        <v>1.0356002990031</v>
+        <v>1.037705097018988</v>
       </c>
       <c r="L5">
-        <v>1.032030962204646</v>
+        <v>1.043027094324917</v>
       </c>
       <c r="M5">
-        <v>1.035162552383811</v>
+        <v>1.053474274798011</v>
       </c>
       <c r="N5">
-        <v>1.013990107233553</v>
+        <v>1.015919769746304</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011725099975273</v>
+        <v>1.031330009088049</v>
       </c>
       <c r="D6">
-        <v>1.0261418795262</v>
+        <v>1.035298050285533</v>
       </c>
       <c r="E6">
-        <v>1.022564514460334</v>
+        <v>1.040641988182392</v>
       </c>
       <c r="F6">
-        <v>1.025775232685039</v>
+        <v>1.051126016085846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044528391246494</v>
+        <v>1.034850382772423</v>
       </c>
       <c r="J6">
-        <v>1.030311254739097</v>
+        <v>1.035770299416969</v>
       </c>
       <c r="K6">
-        <v>1.035681328811688</v>
+        <v>1.037723264012752</v>
       </c>
       <c r="L6">
-        <v>1.032143459294196</v>
+        <v>1.043054086032762</v>
       </c>
       <c r="M6">
-        <v>1.035318714331041</v>
+        <v>1.053512798788049</v>
       </c>
       <c r="N6">
-        <v>1.014019124086114</v>
+        <v>1.015926410165246</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010583370565643</v>
+        <v>1.0310800826478</v>
       </c>
       <c r="D7">
-        <v>1.025322930628641</v>
+        <v>1.035112801647619</v>
       </c>
       <c r="E7">
-        <v>1.021525068004293</v>
+        <v>1.040396299785197</v>
       </c>
       <c r="F7">
-        <v>1.024432587840495</v>
+        <v>1.050801552288999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04424901559827</v>
+        <v>1.034803101940006</v>
       </c>
       <c r="J7">
-        <v>1.029714180005419</v>
+        <v>1.035633342332053</v>
       </c>
       <c r="K7">
-        <v>1.035122140493888</v>
+        <v>1.037598320321031</v>
       </c>
       <c r="L7">
-        <v>1.031367547636049</v>
+        <v>1.042868509449342</v>
       </c>
       <c r="M7">
-        <v>1.034241906046538</v>
+        <v>1.053247972462171</v>
       </c>
       <c r="N7">
-        <v>1.013818907358485</v>
+        <v>1.01588074372951</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005723267326808</v>
+        <v>1.030036565494717</v>
       </c>
       <c r="D8">
-        <v>1.021841732000119</v>
+        <v>1.034339319959183</v>
       </c>
       <c r="E8">
-        <v>1.017111138386189</v>
+        <v>1.03937129429718</v>
       </c>
       <c r="F8">
-        <v>1.018732042021987</v>
+        <v>1.049448384597369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043042111790159</v>
+        <v>1.034603550610861</v>
       </c>
       <c r="J8">
-        <v>1.027166742434812</v>
+        <v>1.035060653746207</v>
       </c>
       <c r="K8">
-        <v>1.032733752764127</v>
+        <v>1.037075486247788</v>
       </c>
       <c r="L8">
-        <v>1.028064211376058</v>
+        <v>1.042093424275998</v>
       </c>
       <c r="M8">
-        <v>1.029664116011457</v>
+        <v>1.052142843557688</v>
       </c>
       <c r="N8">
-        <v>1.012964471621731</v>
+        <v>1.015689727412431</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.996806059700966</v>
+        <v>1.028202140733099</v>
       </c>
       <c r="D9">
-        <v>1.015476078759223</v>
+        <v>1.032979580252644</v>
       </c>
       <c r="E9">
-        <v>1.009055001564453</v>
+        <v>1.037572499021137</v>
       </c>
       <c r="F9">
-        <v>1.008328451948819</v>
+        <v>1.047075492371678</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040762153768183</v>
+        <v>1.034244702462195</v>
       </c>
       <c r="J9">
-        <v>1.02247211057507</v>
+        <v>1.034050712659707</v>
       </c>
       <c r="K9">
-        <v>1.028322960097035</v>
+        <v>1.036152042611804</v>
       </c>
       <c r="L9">
-        <v>1.022002856344949</v>
+        <v>1.040729955623369</v>
       </c>
       <c r="M9">
-        <v>1.021287835697243</v>
+        <v>1.050202358773773</v>
       </c>
       <c r="N9">
-        <v>1.011389195052457</v>
+        <v>1.015352640186431</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9906018755411102</v>
+        <v>1.026982237988776</v>
       </c>
       <c r="D10">
-        <v>1.011064533288949</v>
+        <v>1.032075365358866</v>
       </c>
       <c r="E10">
-        <v>1.003479822520295</v>
+        <v>1.036378376420158</v>
       </c>
       <c r="F10">
-        <v>1.001126735458895</v>
+        <v>1.045501437308806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039133483026786</v>
+        <v>1.034000660220319</v>
       </c>
       <c r="J10">
-        <v>1.019193395363713</v>
+        <v>1.033376957114883</v>
       </c>
       <c r="K10">
-        <v>1.02523684711784</v>
+        <v>1.035535045044664</v>
       </c>
       <c r="L10">
-        <v>1.017786530658942</v>
+        <v>1.039822623644705</v>
       </c>
       <c r="M10">
-        <v>1.01547567610559</v>
+        <v>1.048913428347274</v>
       </c>
       <c r="N10">
-        <v>1.010288713953463</v>
+        <v>1.015127610167481</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9878486304735227</v>
+        <v>1.026454750066672</v>
       </c>
       <c r="D11">
-        <v>1.00911158324406</v>
+        <v>1.031684392695804</v>
       </c>
       <c r="E11">
-        <v>1.001013094235582</v>
+        <v>1.035862533230381</v>
       </c>
       <c r="F11">
-        <v>0.9979392726803263</v>
+        <v>1.044821742356645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038401113407493</v>
+        <v>1.033893854684054</v>
       </c>
       <c r="J11">
-        <v>1.017735805999346</v>
+        <v>1.033085118847763</v>
       </c>
       <c r="K11">
-        <v>1.02386369006916</v>
+        <v>1.035267569004672</v>
       </c>
       <c r="L11">
-        <v>1.015915930339604</v>
+        <v>1.039430146472739</v>
       </c>
       <c r="M11">
-        <v>1.012900156218145</v>
+        <v>1.048356447403882</v>
       </c>
       <c r="N11">
-        <v>1.00979943653481</v>
+        <v>1.015030102703999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9868154412933823</v>
+        <v>1.02625893010772</v>
       </c>
       <c r="D12">
-        <v>1.008379488710571</v>
+        <v>1.031539253711349</v>
       </c>
       <c r="E12">
-        <v>1.000088558706637</v>
+        <v>1.035671111102089</v>
       </c>
       <c r="F12">
-        <v>0.9967443889671552</v>
+        <v>1.044569557707585</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038124877134159</v>
+        <v>1.033854012695637</v>
       </c>
       <c r="J12">
-        <v>1.017188470145692</v>
+        <v>1.032976703634091</v>
       </c>
       <c r="K12">
-        <v>1.023347892693048</v>
+        <v>1.035168170845543</v>
       </c>
       <c r="L12">
-        <v>1.015214062268083</v>
+        <v>1.039284424967003</v>
       </c>
       <c r="M12">
-        <v>1.01193422827223</v>
+        <v>1.048149731859914</v>
       </c>
       <c r="N12">
-        <v>1.009615704578319</v>
+        <v>1.014993874311898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9870375475061578</v>
+        <v>1.026300929034162</v>
       </c>
       <c r="D13">
-        <v>1.008536832238829</v>
+        <v>1.031570382610803</v>
       </c>
       <c r="E13">
-        <v>1.0002872557806</v>
+        <v>1.035712163398765</v>
       </c>
       <c r="F13">
-        <v>0.9970011986876935</v>
+        <v>1.044623639277797</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03818432294594</v>
+        <v>1.033862566604124</v>
       </c>
       <c r="J13">
-        <v>1.017306147391217</v>
+        <v>1.032999959656714</v>
       </c>
       <c r="K13">
-        <v>1.023458796484057</v>
+        <v>1.035189494134048</v>
       </c>
       <c r="L13">
-        <v>1.015364939070099</v>
+        <v>1.039315679897568</v>
       </c>
       <c r="M13">
-        <v>1.012141849527799</v>
+        <v>1.048194065238647</v>
       </c>
       <c r="N13">
-        <v>1.009655207129837</v>
+        <v>1.015001645860513</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9877634440176601</v>
+        <v>1.026438561222333</v>
       </c>
       <c r="D14">
-        <v>1.009051205966376</v>
+        <v>1.031672393704108</v>
       </c>
       <c r="E14">
-        <v>1.000936843047905</v>
+        <v>1.035846706433511</v>
       </c>
       <c r="F14">
-        <v>0.9978407291869029</v>
+        <v>1.044800890885122</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03837836608152</v>
+        <v>1.03389056478999</v>
       </c>
       <c r="J14">
-        <v>1.017690685240267</v>
+        <v>1.033076157480651</v>
       </c>
       <c r="K14">
-        <v>1.023821172561708</v>
+        <v>1.035259353645938</v>
       </c>
       <c r="L14">
-        <v>1.015858059179584</v>
+        <v>1.039418099815147</v>
       </c>
       <c r="M14">
-        <v>1.012820503887711</v>
+        <v>1.048339356715302</v>
       </c>
       <c r="N14">
-        <v>1.009784290291624</v>
+        <v>1.015027108250775</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9882092852263759</v>
+        <v>1.026523375918567</v>
       </c>
       <c r="D15">
-        <v>1.009367235046276</v>
+        <v>1.031735257511003</v>
       </c>
       <c r="E15">
-        <v>1.00133596608825</v>
+        <v>1.035929627404173</v>
       </c>
       <c r="F15">
-        <v>0.9983565281597442</v>
+        <v>1.044910139175852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038497361895432</v>
+        <v>1.033907792934942</v>
       </c>
       <c r="J15">
-        <v>1.017926819818141</v>
+        <v>1.033123103723147</v>
       </c>
       <c r="K15">
-        <v>1.024043676591664</v>
+        <v>1.035302390384765</v>
       </c>
       <c r="L15">
-        <v>1.016160944185739</v>
+        <v>1.039481212361773</v>
       </c>
       <c r="M15">
-        <v>1.013237404261882</v>
+        <v>1.04842889842423</v>
       </c>
       <c r="N15">
-        <v>1.009863556333068</v>
+        <v>1.015042795187011</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9907831520678101</v>
+        <v>1.02701726131598</v>
       </c>
       <c r="D16">
-        <v>1.01119322189754</v>
+        <v>1.032101324843118</v>
       </c>
       <c r="E16">
-        <v>1.003642390637262</v>
+        <v>1.036412637081803</v>
       </c>
       <c r="F16">
-        <v>1.001336776160783</v>
+        <v>1.045546586203803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039181505711992</v>
+        <v>1.03400772472384</v>
       </c>
       <c r="J16">
-        <v>1.019289313215296</v>
+        <v>1.033396323503011</v>
       </c>
       <c r="K16">
-        <v>1.025327185042753</v>
+        <v>1.035552790079517</v>
       </c>
       <c r="L16">
-        <v>1.017909705167128</v>
+        <v>1.039848679680691</v>
       </c>
       <c r="M16">
-        <v>1.015645329663183</v>
+        <v>1.0489504173709</v>
       </c>
       <c r="N16">
-        <v>1.010320910486482</v>
+        <v>1.015134080021538</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9923794607958514</v>
+        <v>1.027327261338588</v>
       </c>
       <c r="D17">
-        <v>1.012326995946946</v>
+        <v>1.032331099956726</v>
       </c>
       <c r="E17">
-        <v>1.005074799205071</v>
+        <v>1.036715944090437</v>
       </c>
       <c r="F17">
-        <v>1.003187342593863</v>
+        <v>1.045946317464662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039603298822582</v>
+        <v>1.034070106253299</v>
       </c>
       <c r="J17">
-        <v>1.020133668047978</v>
+        <v>1.03356768174105</v>
       </c>
       <c r="K17">
-        <v>1.02612228614687</v>
+        <v>1.035709776523273</v>
       </c>
       <c r="L17">
-        <v>1.018994430067908</v>
+        <v>1.040079291226392</v>
       </c>
       <c r="M17">
-        <v>1.01713971600033</v>
+        <v>1.049277857235824</v>
       </c>
       <c r="N17">
-        <v>1.010604328222002</v>
+        <v>1.015191322693163</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9933041498069451</v>
+        <v>1.027508150203183</v>
       </c>
       <c r="D18">
-        <v>1.0129842036914</v>
+        <v>1.032465177646448</v>
       </c>
       <c r="E18">
-        <v>1.005905246378835</v>
+        <v>1.036892975510858</v>
       </c>
       <c r="F18">
-        <v>1.004260120411533</v>
+        <v>1.046179655349293</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039846713276335</v>
+        <v>1.034106382920374</v>
       </c>
       <c r="J18">
-        <v>1.020622526942984</v>
+        <v>1.033667622598792</v>
       </c>
       <c r="K18">
-        <v>1.026582514471242</v>
+        <v>1.035801313871902</v>
       </c>
       <c r="L18">
-        <v>1.019622820204112</v>
+        <v>1.040213841885959</v>
       </c>
       <c r="M18">
-        <v>1.018005721582804</v>
+        <v>1.049468956722289</v>
       </c>
       <c r="N18">
-        <v>1.010768414966625</v>
+        <v>1.015224704786805</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9936183714841917</v>
+        <v>1.027569840640014</v>
       </c>
       <c r="D19">
-        <v>1.013207606288159</v>
+        <v>1.03251090373695</v>
       </c>
       <c r="E19">
-        <v>1.006187561431376</v>
+        <v>1.036953358539874</v>
       </c>
       <c r="F19">
-        <v>1.004624801894583</v>
+        <v>1.046259248256072</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039929272187096</v>
+        <v>1.034118733746198</v>
       </c>
       <c r="J19">
-        <v>1.020788604740768</v>
+        <v>1.03370169820055</v>
       </c>
       <c r="K19">
-        <v>1.026738846035544</v>
+        <v>1.035832520584437</v>
       </c>
       <c r="L19">
-        <v>1.019836362443556</v>
+        <v>1.040259726731466</v>
       </c>
       <c r="M19">
-        <v>1.018300062277798</v>
+        <v>1.049534135210063</v>
       </c>
       <c r="N19">
-        <v>1.010824158563249</v>
+        <v>1.015236086087358</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992208858437392</v>
+        <v>1.027293993904162</v>
       </c>
       <c r="D20">
-        <v>1.012205779021</v>
+        <v>1.032306441688761</v>
       </c>
       <c r="E20">
-        <v>1.004921640564766</v>
+        <v>1.036683389945094</v>
       </c>
       <c r="F20">
-        <v>1.002989483522654</v>
+        <v>1.045903411307901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039558315281774</v>
+        <v>1.034063424619011</v>
       </c>
       <c r="J20">
-        <v>1.020043454787831</v>
+        <v>1.033549297598242</v>
       </c>
       <c r="K20">
-        <v>1.026037347029696</v>
+        <v>1.035692936477183</v>
       </c>
       <c r="L20">
-        <v>1.018878497411313</v>
+        <v>1.040054544762124</v>
       </c>
       <c r="M20">
-        <v>1.01697996936366</v>
+        <v>1.049242714715148</v>
       </c>
       <c r="N20">
-        <v>1.010574047524496</v>
+        <v>1.015185181774554</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9875499797226323</v>
+        <v>1.026398028853237</v>
       </c>
       <c r="D21">
-        <v>1.008899922368535</v>
+        <v>1.031642351600444</v>
       </c>
       <c r="E21">
-        <v>1.000745787549733</v>
+        <v>1.035807081742263</v>
       </c>
       <c r="F21">
-        <v>0.9975938142788597</v>
+        <v>1.044748686842524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038321342226997</v>
+        <v>1.033882324700144</v>
       </c>
       <c r="J21">
-        <v>1.017577613831559</v>
+        <v>1.033053719483462</v>
       </c>
       <c r="K21">
-        <v>1.023714622191831</v>
+        <v>1.035238783011141</v>
       </c>
       <c r="L21">
-        <v>1.015713044519455</v>
+        <v>1.039387937979984</v>
       </c>
       <c r="M21">
-        <v>1.012620916428492</v>
+        <v>1.048296567236888</v>
       </c>
       <c r="N21">
-        <v>1.009746334147931</v>
+        <v>1.015019610477925</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9845596852531874</v>
+        <v>1.025835352021955</v>
       </c>
       <c r="D22">
-        <v>1.006782598080793</v>
+        <v>1.031225308349454</v>
       </c>
       <c r="E22">
-        <v>0.9980721398692038</v>
+        <v>1.035257183212432</v>
       </c>
       <c r="F22">
-        <v>0.994137882294026</v>
+        <v>1.044024311560656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037519232558957</v>
+        <v>1.033767478739315</v>
       </c>
       <c r="J22">
-        <v>1.015992853178235</v>
+        <v>1.03274205240842</v>
       </c>
       <c r="K22">
-        <v>1.022220877288755</v>
+        <v>1.034952975201922</v>
       </c>
       <c r="L22">
-        <v>1.013681885032118</v>
+        <v>1.038969175173637</v>
       </c>
       <c r="M22">
-        <v>1.009826370285048</v>
+        <v>1.047702682542507</v>
       </c>
       <c r="N22">
-        <v>1.009214349165864</v>
+        <v>1.014915452870978</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9861508525217415</v>
+        <v>1.026133575302342</v>
       </c>
       <c r="D23">
-        <v>1.007908801521334</v>
+        <v>1.031446343205699</v>
       </c>
       <c r="E23">
-        <v>0.999494183330774</v>
+        <v>1.035548592706358</v>
       </c>
       <c r="F23">
-        <v>0.9959761416948122</v>
+        <v>1.044408160036441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037946799744987</v>
+        <v>1.033828453547103</v>
       </c>
       <c r="J23">
-        <v>1.016836304999081</v>
+        <v>1.032907279966347</v>
       </c>
       <c r="K23">
-        <v>1.023015974605007</v>
+        <v>1.035104511895571</v>
       </c>
       <c r="L23">
-        <v>1.014762623211146</v>
+        <v>1.039191134745098</v>
       </c>
       <c r="M23">
-        <v>1.011313065006497</v>
+        <v>1.048017417151598</v>
       </c>
       <c r="N23">
-        <v>1.009497487338294</v>
+        <v>1.014970673986479</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9922859660768922</v>
+        <v>1.027309025806327</v>
       </c>
       <c r="D24">
-        <v>1.012260564394476</v>
+        <v>1.032317583532796</v>
       </c>
       <c r="E24">
-        <v>1.00499086194877</v>
+        <v>1.036698099399034</v>
       </c>
       <c r="F24">
-        <v>1.003078907958532</v>
+        <v>1.045922798192956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039578649465389</v>
+        <v>1.03406644410012</v>
       </c>
       <c r="J24">
-        <v>1.020084229505989</v>
+        <v>1.033557604630552</v>
       </c>
       <c r="K24">
-        <v>1.026075738287452</v>
+        <v>1.035700545862571</v>
       </c>
       <c r="L24">
-        <v>1.018930895691247</v>
+        <v>1.040065726504265</v>
       </c>
       <c r="M24">
-        <v>1.017052169405577</v>
+        <v>1.049258593769846</v>
       </c>
       <c r="N24">
-        <v>1.010587733851698</v>
+        <v>1.015187956611752</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9991554029277327</v>
+        <v>1.02867585364358</v>
       </c>
       <c r="D25">
-        <v>1.017150387829293</v>
+        <v>1.033330711607091</v>
       </c>
       <c r="E25">
-        <v>1.01117240754877</v>
+        <v>1.038036643819079</v>
       </c>
       <c r="F25">
-        <v>1.011062998315662</v>
+        <v>1.047687561498542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041370301248407</v>
+        <v>1.034338324037567</v>
       </c>
       <c r="J25">
-        <v>1.023711224603399</v>
+        <v>1.034311893112429</v>
       </c>
       <c r="K25">
-        <v>1.029488174595549</v>
+        <v>1.036391021437099</v>
       </c>
       <c r="L25">
-        <v>1.023599727118317</v>
+        <v>1.041082160517494</v>
       </c>
       <c r="M25">
-        <v>1.023491969082754</v>
+        <v>1.050703194293976</v>
       </c>
       <c r="N25">
-        <v>1.011805041032757</v>
+        <v>1.015439840984556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029768215540761</v>
+        <v>1.004448882156152</v>
       </c>
       <c r="D2">
-        <v>1.034140409772263</v>
+        <v>1.020930256760278</v>
       </c>
       <c r="E2">
-        <v>1.039107914137565</v>
+        <v>1.015956536390499</v>
       </c>
       <c r="F2">
-        <v>1.049100804991565</v>
+        <v>1.017241029169028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034551686873269</v>
+        <v>1.042721202482855</v>
       </c>
       <c r="J2">
-        <v>1.034913164017445</v>
+        <v>1.02649733731096</v>
       </c>
       <c r="K2">
-        <v>1.036940739213756</v>
+        <v>1.032105502036116</v>
       </c>
       <c r="L2">
-        <v>1.041894040855497</v>
+        <v>1.027197958631951</v>
       </c>
       <c r="M2">
-        <v>1.051858802697866</v>
+        <v>1.028465282983782</v>
       </c>
       <c r="N2">
-        <v>1.015640517648769</v>
+        <v>1.012739898672591</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030562604720285</v>
+        <v>1.008192129812466</v>
       </c>
       <c r="D3">
-        <v>1.034729235998363</v>
+        <v>1.023609128703501</v>
       </c>
       <c r="E3">
-        <v>1.039887838461232</v>
+        <v>1.01935120716626</v>
       </c>
       <c r="F3">
-        <v>1.050130206903502</v>
+        <v>1.021624923319113</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034704572261864</v>
+        <v>1.043658666035282</v>
       </c>
       <c r="J3">
-        <v>1.035349517361032</v>
+        <v>1.028461933351418</v>
       </c>
       <c r="K3">
-        <v>1.037339278951794</v>
+        <v>1.033948581685901</v>
       </c>
       <c r="L3">
-        <v>1.042484195792342</v>
+        <v>1.029742331070205</v>
       </c>
       <c r="M3">
-        <v>1.052699821718335</v>
+        <v>1.031988388550049</v>
       </c>
       <c r="N3">
-        <v>1.015786088068981</v>
+        <v>1.013398930211385</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03107719075133</v>
+        <v>1.010570109614052</v>
       </c>
       <c r="D4">
-        <v>1.035110658128329</v>
+        <v>1.025313421236093</v>
       </c>
       <c r="E4">
-        <v>1.040393457374549</v>
+        <v>1.021513000841807</v>
       </c>
       <c r="F4">
-        <v>1.050797798781104</v>
+        <v>1.024417001380212</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034802553679574</v>
+        <v>1.044245761036237</v>
       </c>
       <c r="J4">
-        <v>1.035631757134885</v>
+        <v>1.029707241879032</v>
       </c>
       <c r="K4">
-        <v>1.03759687396313</v>
+        <v>1.03511564117975</v>
       </c>
       <c r="L4">
-        <v>1.042866362008211</v>
+        <v>1.031358535287583</v>
       </c>
       <c r="M4">
-        <v>1.053244908488761</v>
+        <v>1.034229402366226</v>
       </c>
       <c r="N4">
-        <v>1.015880215133839</v>
+        <v>1.013816580683353</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031293655879763</v>
+        <v>1.011559559294569</v>
       </c>
       <c r="D5">
-        <v>1.035271104928151</v>
+        <v>1.026023112565104</v>
       </c>
       <c r="E5">
-        <v>1.04060624665822</v>
+        <v>1.022413742468588</v>
       </c>
       <c r="F5">
-        <v>1.051078811844094</v>
+        <v>1.025580475072086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034843518014146</v>
+        <v>1.044487987188683</v>
       </c>
       <c r="J5">
-        <v>1.035750383222436</v>
+        <v>1.03022471860918</v>
       </c>
       <c r="K5">
-        <v>1.037705097018988</v>
+        <v>1.0356002990031</v>
       </c>
       <c r="L5">
-        <v>1.043027094324917</v>
+        <v>1.032030962204646</v>
       </c>
       <c r="M5">
-        <v>1.053474274798011</v>
+        <v>1.035162552383811</v>
       </c>
       <c r="N5">
-        <v>1.015919769746304</v>
+        <v>1.013990107233553</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031330009088049</v>
+        <v>1.011725099975273</v>
       </c>
       <c r="D6">
-        <v>1.035298050285533</v>
+        <v>1.0261418795262</v>
       </c>
       <c r="E6">
-        <v>1.040641988182392</v>
+        <v>1.022564514460334</v>
       </c>
       <c r="F6">
-        <v>1.051126016085846</v>
+        <v>1.025775232685038</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034850382772423</v>
+        <v>1.044528391246494</v>
       </c>
       <c r="J6">
-        <v>1.035770299416969</v>
+        <v>1.030311254739097</v>
       </c>
       <c r="K6">
-        <v>1.037723264012752</v>
+        <v>1.035681328811688</v>
       </c>
       <c r="L6">
-        <v>1.043054086032762</v>
+        <v>1.032143459294196</v>
       </c>
       <c r="M6">
-        <v>1.053512798788049</v>
+        <v>1.03531871433104</v>
       </c>
       <c r="N6">
-        <v>1.015926410165246</v>
+        <v>1.014019124086114</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0310800826478</v>
+        <v>1.010583370565643</v>
       </c>
       <c r="D7">
-        <v>1.035112801647619</v>
+        <v>1.025322930628641</v>
       </c>
       <c r="E7">
-        <v>1.040396299785197</v>
+        <v>1.021525068004292</v>
       </c>
       <c r="F7">
-        <v>1.050801552288999</v>
+        <v>1.024432587840494</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034803101940006</v>
+        <v>1.04424901559827</v>
       </c>
       <c r="J7">
-        <v>1.035633342332053</v>
+        <v>1.029714180005419</v>
       </c>
       <c r="K7">
-        <v>1.037598320321031</v>
+        <v>1.035122140493887</v>
       </c>
       <c r="L7">
-        <v>1.042868509449342</v>
+        <v>1.031367547636048</v>
       </c>
       <c r="M7">
-        <v>1.053247972462171</v>
+        <v>1.034241906046537</v>
       </c>
       <c r="N7">
-        <v>1.01588074372951</v>
+        <v>1.013818907358484</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030036565494717</v>
+        <v>1.005723267326808</v>
       </c>
       <c r="D8">
-        <v>1.034339319959183</v>
+        <v>1.021841732000119</v>
       </c>
       <c r="E8">
-        <v>1.03937129429718</v>
+        <v>1.01711113838619</v>
       </c>
       <c r="F8">
-        <v>1.049448384597369</v>
+        <v>1.018732042021987</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034603550610861</v>
+        <v>1.043042111790159</v>
       </c>
       <c r="J8">
-        <v>1.035060653746207</v>
+        <v>1.027166742434812</v>
       </c>
       <c r="K8">
-        <v>1.037075486247788</v>
+        <v>1.032733752764128</v>
       </c>
       <c r="L8">
-        <v>1.042093424275998</v>
+        <v>1.028064211376058</v>
       </c>
       <c r="M8">
-        <v>1.052142843557688</v>
+        <v>1.029664116011458</v>
       </c>
       <c r="N8">
-        <v>1.015689727412431</v>
+        <v>1.012964471621731</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028202140733099</v>
+        <v>0.9968060597009657</v>
       </c>
       <c r="D9">
-        <v>1.032979580252644</v>
+        <v>1.015476078759223</v>
       </c>
       <c r="E9">
-        <v>1.037572499021137</v>
+        <v>1.009055001564453</v>
       </c>
       <c r="F9">
-        <v>1.047075492371678</v>
+        <v>1.008328451948819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034244702462195</v>
+        <v>1.040762153768183</v>
       </c>
       <c r="J9">
-        <v>1.034050712659707</v>
+        <v>1.02247211057507</v>
       </c>
       <c r="K9">
-        <v>1.036152042611804</v>
+        <v>1.028322960097035</v>
       </c>
       <c r="L9">
-        <v>1.040729955623369</v>
+        <v>1.022002856344949</v>
       </c>
       <c r="M9">
-        <v>1.050202358773773</v>
+        <v>1.021287835697243</v>
       </c>
       <c r="N9">
-        <v>1.015352640186431</v>
+        <v>1.011389195052457</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026982237988776</v>
+        <v>0.9906018755411101</v>
       </c>
       <c r="D10">
-        <v>1.032075365358866</v>
+        <v>1.011064533288949</v>
       </c>
       <c r="E10">
-        <v>1.036378376420158</v>
+        <v>1.003479822520295</v>
       </c>
       <c r="F10">
-        <v>1.045501437308806</v>
+        <v>1.001126735458895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034000660220319</v>
+        <v>1.039133483026786</v>
       </c>
       <c r="J10">
-        <v>1.033376957114883</v>
+        <v>1.019193395363713</v>
       </c>
       <c r="K10">
-        <v>1.035535045044664</v>
+        <v>1.02523684711784</v>
       </c>
       <c r="L10">
-        <v>1.039822623644705</v>
+        <v>1.017786530658942</v>
       </c>
       <c r="M10">
-        <v>1.048913428347274</v>
+        <v>1.01547567610559</v>
       </c>
       <c r="N10">
-        <v>1.015127610167481</v>
+        <v>1.010288713953463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026454750066672</v>
+        <v>0.9878486304735226</v>
       </c>
       <c r="D11">
-        <v>1.031684392695804</v>
+        <v>1.00911158324406</v>
       </c>
       <c r="E11">
-        <v>1.035862533230381</v>
+        <v>1.001013094235581</v>
       </c>
       <c r="F11">
-        <v>1.044821742356645</v>
+        <v>0.9979392726803261</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033893854684054</v>
+        <v>1.038401113407493</v>
       </c>
       <c r="J11">
-        <v>1.033085118847763</v>
+        <v>1.017735805999346</v>
       </c>
       <c r="K11">
-        <v>1.035267569004672</v>
+        <v>1.02386369006916</v>
       </c>
       <c r="L11">
-        <v>1.039430146472739</v>
+        <v>1.015915930339604</v>
       </c>
       <c r="M11">
-        <v>1.048356447403882</v>
+        <v>1.012900156218144</v>
       </c>
       <c r="N11">
-        <v>1.015030102703999</v>
+        <v>1.00979943653481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02625893010772</v>
+        <v>0.9868154412933822</v>
       </c>
       <c r="D12">
-        <v>1.031539253711349</v>
+        <v>1.008379488710571</v>
       </c>
       <c r="E12">
-        <v>1.035671111102089</v>
+        <v>1.000088558706638</v>
       </c>
       <c r="F12">
-        <v>1.044569557707585</v>
+        <v>0.9967443889671557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033854012695637</v>
+        <v>1.038124877134159</v>
       </c>
       <c r="J12">
-        <v>1.032976703634091</v>
+        <v>1.017188470145692</v>
       </c>
       <c r="K12">
-        <v>1.035168170845543</v>
+        <v>1.023347892693048</v>
       </c>
       <c r="L12">
-        <v>1.039284424967003</v>
+        <v>1.015214062268083</v>
       </c>
       <c r="M12">
-        <v>1.048149731859914</v>
+        <v>1.011934228272231</v>
       </c>
       <c r="N12">
-        <v>1.014993874311898</v>
+        <v>1.009615704578319</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026300929034162</v>
+        <v>0.9870375475061584</v>
       </c>
       <c r="D13">
-        <v>1.031570382610803</v>
+        <v>1.00853683223883</v>
       </c>
       <c r="E13">
-        <v>1.035712163398765</v>
+        <v>1.0002872557806</v>
       </c>
       <c r="F13">
-        <v>1.044623639277797</v>
+        <v>0.9970011986876942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033862566604124</v>
+        <v>1.038184322945941</v>
       </c>
       <c r="J13">
-        <v>1.032999959656714</v>
+        <v>1.017306147391218</v>
       </c>
       <c r="K13">
-        <v>1.035189494134048</v>
+        <v>1.023458796484057</v>
       </c>
       <c r="L13">
-        <v>1.039315679897568</v>
+        <v>1.015364939070099</v>
       </c>
       <c r="M13">
-        <v>1.048194065238647</v>
+        <v>1.012141849527799</v>
       </c>
       <c r="N13">
-        <v>1.015001645860513</v>
+        <v>1.009655207129837</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026438561222333</v>
+        <v>0.9877634440176596</v>
       </c>
       <c r="D14">
-        <v>1.031672393704108</v>
+        <v>1.009051205966375</v>
       </c>
       <c r="E14">
-        <v>1.035846706433511</v>
+        <v>1.000936843047904</v>
       </c>
       <c r="F14">
-        <v>1.044800890885122</v>
+        <v>0.9978407291869023</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03389056478999</v>
+        <v>1.03837836608152</v>
       </c>
       <c r="J14">
-        <v>1.033076157480651</v>
+        <v>1.017690685240267</v>
       </c>
       <c r="K14">
-        <v>1.035259353645938</v>
+        <v>1.023821172561707</v>
       </c>
       <c r="L14">
-        <v>1.039418099815147</v>
+        <v>1.015858059179583</v>
       </c>
       <c r="M14">
-        <v>1.048339356715302</v>
+        <v>1.012820503887711</v>
       </c>
       <c r="N14">
-        <v>1.015027108250775</v>
+        <v>1.009784290291624</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026523375918567</v>
+        <v>0.9882092852263762</v>
       </c>
       <c r="D15">
-        <v>1.031735257511003</v>
+        <v>1.009367235046277</v>
       </c>
       <c r="E15">
-        <v>1.035929627404173</v>
+        <v>1.001335966088251</v>
       </c>
       <c r="F15">
-        <v>1.044910139175852</v>
+        <v>0.9983565281597445</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033907792934942</v>
+        <v>1.038497361895432</v>
       </c>
       <c r="J15">
-        <v>1.033123103723147</v>
+        <v>1.017926819818141</v>
       </c>
       <c r="K15">
-        <v>1.035302390384765</v>
+        <v>1.024043676591664</v>
       </c>
       <c r="L15">
-        <v>1.039481212361773</v>
+        <v>1.016160944185739</v>
       </c>
       <c r="M15">
-        <v>1.04842889842423</v>
+        <v>1.013237404261883</v>
       </c>
       <c r="N15">
-        <v>1.015042795187011</v>
+        <v>1.009863556333068</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02701726131598</v>
+        <v>0.9907831520678106</v>
       </c>
       <c r="D16">
-        <v>1.032101324843118</v>
+        <v>1.01119322189754</v>
       </c>
       <c r="E16">
-        <v>1.036412637081803</v>
+        <v>1.003642390637262</v>
       </c>
       <c r="F16">
-        <v>1.045546586203803</v>
+        <v>1.001336776160783</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03400772472384</v>
+        <v>1.039181505711992</v>
       </c>
       <c r="J16">
-        <v>1.033396323503011</v>
+        <v>1.019289313215296</v>
       </c>
       <c r="K16">
-        <v>1.035552790079517</v>
+        <v>1.025327185042753</v>
       </c>
       <c r="L16">
-        <v>1.039848679680691</v>
+        <v>1.017909705167128</v>
       </c>
       <c r="M16">
-        <v>1.0489504173709</v>
+        <v>1.015645329663184</v>
       </c>
       <c r="N16">
-        <v>1.015134080021538</v>
+        <v>1.010320910486482</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027327261338588</v>
+        <v>0.9923794607958506</v>
       </c>
       <c r="D17">
-        <v>1.032331099956726</v>
+        <v>1.012326995946945</v>
       </c>
       <c r="E17">
-        <v>1.036715944090437</v>
+        <v>1.00507479920507</v>
       </c>
       <c r="F17">
-        <v>1.045946317464662</v>
+        <v>1.003187342593862</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034070106253299</v>
+        <v>1.039603298822582</v>
       </c>
       <c r="J17">
-        <v>1.03356768174105</v>
+        <v>1.020133668047977</v>
       </c>
       <c r="K17">
-        <v>1.035709776523273</v>
+        <v>1.02612228614687</v>
       </c>
       <c r="L17">
-        <v>1.040079291226392</v>
+        <v>1.018994430067907</v>
       </c>
       <c r="M17">
-        <v>1.049277857235824</v>
+        <v>1.017139716000329</v>
       </c>
       <c r="N17">
-        <v>1.015191322693163</v>
+        <v>1.010604328222001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027508150203183</v>
+        <v>0.9933041498069445</v>
       </c>
       <c r="D18">
-        <v>1.032465177646448</v>
+        <v>1.0129842036914</v>
       </c>
       <c r="E18">
-        <v>1.036892975510858</v>
+        <v>1.005905246378834</v>
       </c>
       <c r="F18">
-        <v>1.046179655349293</v>
+        <v>1.004260120411532</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034106382920374</v>
+        <v>1.039846713276334</v>
       </c>
       <c r="J18">
-        <v>1.033667622598792</v>
+        <v>1.020622526942983</v>
       </c>
       <c r="K18">
-        <v>1.035801313871902</v>
+        <v>1.026582514471241</v>
       </c>
       <c r="L18">
-        <v>1.040213841885959</v>
+        <v>1.019622820204111</v>
       </c>
       <c r="M18">
-        <v>1.049468956722289</v>
+        <v>1.018005721582803</v>
       </c>
       <c r="N18">
-        <v>1.015224704786805</v>
+        <v>1.010768414966625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027569840640014</v>
+        <v>0.9936183714841916</v>
       </c>
       <c r="D19">
-        <v>1.03251090373695</v>
+        <v>1.013207606288158</v>
       </c>
       <c r="E19">
-        <v>1.036953358539874</v>
+        <v>1.006187561431375</v>
       </c>
       <c r="F19">
-        <v>1.046259248256072</v>
+        <v>1.004624801894583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034118733746198</v>
+        <v>1.039929272187096</v>
       </c>
       <c r="J19">
-        <v>1.03370169820055</v>
+        <v>1.020788604740768</v>
       </c>
       <c r="K19">
-        <v>1.035832520584437</v>
+        <v>1.026738846035544</v>
       </c>
       <c r="L19">
-        <v>1.040259726731466</v>
+        <v>1.019836362443556</v>
       </c>
       <c r="M19">
-        <v>1.049534135210063</v>
+        <v>1.018300062277798</v>
       </c>
       <c r="N19">
-        <v>1.015236086087358</v>
+        <v>1.010824158563249</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027293993904162</v>
+        <v>0.9922088584373913</v>
       </c>
       <c r="D20">
-        <v>1.032306441688761</v>
+        <v>1.012205779021</v>
       </c>
       <c r="E20">
-        <v>1.036683389945094</v>
+        <v>1.004921640564765</v>
       </c>
       <c r="F20">
-        <v>1.045903411307901</v>
+        <v>1.002989483522653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034063424619011</v>
+        <v>1.039558315281774</v>
       </c>
       <c r="J20">
-        <v>1.033549297598242</v>
+        <v>1.02004345478783</v>
       </c>
       <c r="K20">
-        <v>1.035692936477183</v>
+        <v>1.026037347029695</v>
       </c>
       <c r="L20">
-        <v>1.040054544762124</v>
+        <v>1.018878497411312</v>
       </c>
       <c r="M20">
-        <v>1.049242714715148</v>
+        <v>1.016979969363659</v>
       </c>
       <c r="N20">
-        <v>1.015185181774554</v>
+        <v>1.010574047524496</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026398028853237</v>
+        <v>0.9875499797226315</v>
       </c>
       <c r="D21">
-        <v>1.031642351600444</v>
+        <v>1.008899922368534</v>
       </c>
       <c r="E21">
-        <v>1.035807081742263</v>
+        <v>1.000745787549733</v>
       </c>
       <c r="F21">
-        <v>1.044748686842524</v>
+        <v>0.9975938142788587</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033882324700144</v>
+        <v>1.038321342226996</v>
       </c>
       <c r="J21">
-        <v>1.033053719483462</v>
+        <v>1.017577613831558</v>
       </c>
       <c r="K21">
-        <v>1.035238783011141</v>
+        <v>1.023714622191831</v>
       </c>
       <c r="L21">
-        <v>1.039387937979984</v>
+        <v>1.015713044519454</v>
       </c>
       <c r="M21">
-        <v>1.048296567236888</v>
+        <v>1.012620916428491</v>
       </c>
       <c r="N21">
-        <v>1.015019610477925</v>
+        <v>1.009746334147931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025835352021955</v>
+        <v>0.9845596852531874</v>
       </c>
       <c r="D22">
-        <v>1.031225308349454</v>
+        <v>1.006782598080793</v>
       </c>
       <c r="E22">
-        <v>1.035257183212432</v>
+        <v>0.9980721398692038</v>
       </c>
       <c r="F22">
-        <v>1.044024311560656</v>
+        <v>0.9941378822940261</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033767478739315</v>
+        <v>1.037519232558957</v>
       </c>
       <c r="J22">
-        <v>1.03274205240842</v>
+        <v>1.015992853178235</v>
       </c>
       <c r="K22">
-        <v>1.034952975201922</v>
+        <v>1.022220877288755</v>
       </c>
       <c r="L22">
-        <v>1.038969175173637</v>
+        <v>1.013681885032118</v>
       </c>
       <c r="M22">
-        <v>1.047702682542507</v>
+        <v>1.009826370285047</v>
       </c>
       <c r="N22">
-        <v>1.014915452870978</v>
+        <v>1.009214349165864</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026133575302342</v>
+        <v>0.9861508525217414</v>
       </c>
       <c r="D23">
-        <v>1.031446343205699</v>
+        <v>1.007908801521334</v>
       </c>
       <c r="E23">
-        <v>1.035548592706358</v>
+        <v>0.9994941833307741</v>
       </c>
       <c r="F23">
-        <v>1.044408160036441</v>
+        <v>0.9959761416948119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033828453547103</v>
+        <v>1.037946799744988</v>
       </c>
       <c r="J23">
-        <v>1.032907279966347</v>
+        <v>1.016836304999081</v>
       </c>
       <c r="K23">
-        <v>1.035104511895571</v>
+        <v>1.023015974605007</v>
       </c>
       <c r="L23">
-        <v>1.039191134745098</v>
+        <v>1.014762623211146</v>
       </c>
       <c r="M23">
-        <v>1.048017417151598</v>
+        <v>1.011313065006497</v>
       </c>
       <c r="N23">
-        <v>1.014970673986479</v>
+        <v>1.009497487338295</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027309025806327</v>
+        <v>0.9922859660768918</v>
       </c>
       <c r="D24">
-        <v>1.032317583532796</v>
+        <v>1.012260564394475</v>
       </c>
       <c r="E24">
-        <v>1.036698099399034</v>
+        <v>1.004990861948769</v>
       </c>
       <c r="F24">
-        <v>1.045922798192956</v>
+        <v>1.003078907958531</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03406644410012</v>
+        <v>1.039578649465388</v>
       </c>
       <c r="J24">
-        <v>1.033557604630552</v>
+        <v>1.020084229505988</v>
       </c>
       <c r="K24">
-        <v>1.035700545862571</v>
+        <v>1.026075738287452</v>
       </c>
       <c r="L24">
-        <v>1.040065726504265</v>
+        <v>1.018930895691246</v>
       </c>
       <c r="M24">
-        <v>1.049258593769846</v>
+        <v>1.017052169405576</v>
       </c>
       <c r="N24">
-        <v>1.015187956611752</v>
+        <v>1.010587733851698</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02867585364358</v>
+        <v>0.9991554029277327</v>
       </c>
       <c r="D25">
-        <v>1.033330711607091</v>
+        <v>1.017150387829293</v>
       </c>
       <c r="E25">
-        <v>1.038036643819079</v>
+        <v>1.01117240754877</v>
       </c>
       <c r="F25">
-        <v>1.047687561498542</v>
+        <v>1.011062998315662</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034338324037567</v>
+        <v>1.041370301248407</v>
       </c>
       <c r="J25">
-        <v>1.034311893112429</v>
+        <v>1.023711224603398</v>
       </c>
       <c r="K25">
-        <v>1.036391021437099</v>
+        <v>1.029488174595549</v>
       </c>
       <c r="L25">
-        <v>1.041082160517494</v>
+        <v>1.023599727118317</v>
       </c>
       <c r="M25">
-        <v>1.050703194293976</v>
+        <v>1.023491969082754</v>
       </c>
       <c r="N25">
-        <v>1.015439840984556</v>
+        <v>1.011805041032757</v>
       </c>
     </row>
   </sheetData>
